--- a/team_specific_matrix/Siena_A.xlsx
+++ b/team_specific_matrix/Siena_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2259414225941423</v>
+        <v>0.2323943661971831</v>
       </c>
       <c r="C2">
-        <v>0.4644351464435146</v>
+        <v>0.4436619718309859</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03347280334728033</v>
+        <v>0.03873239436619718</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1757322175732217</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.100418410041841</v>
+        <v>0.102112676056338</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008620689655172414</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C3">
-        <v>0.01724137931034483</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04310344827586207</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6896551724137931</v>
+        <v>0.7022900763358778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2413793103448276</v>
+        <v>0.2290076335877863</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06842105263157895</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005263157894736842</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05789473684210526</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2157894736842105</v>
+        <v>0.2443438914027149</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01052631578947368</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1052631578947368</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="R6">
-        <v>0.06315789473684211</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="S6">
-        <v>0.4736842105263158</v>
+        <v>0.4570135746606335</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09032258064516129</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01290322580645161</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08387096774193549</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09677419354838709</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01290322580645161</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1483870967741935</v>
+        <v>0.1345029239766082</v>
       </c>
       <c r="R7">
-        <v>0.05161290322580645</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="S7">
-        <v>0.5032258064516129</v>
+        <v>0.5029239766081871</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09443099273607748</v>
+        <v>0.1038696537678208</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01694915254237288</v>
+        <v>0.01629327902240326</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06537530266343826</v>
+        <v>0.06313645621181263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.12590799031477</v>
+        <v>0.1221995926680244</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03389830508474576</v>
+        <v>0.03258655804480651</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1912832929782082</v>
+        <v>0.1812627291242362</v>
       </c>
       <c r="R8">
-        <v>0.06053268765133172</v>
+        <v>0.05906313645621181</v>
       </c>
       <c r="S8">
-        <v>0.4116222760290557</v>
+        <v>0.4215885947046843</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.103448275862069</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006896551724137931</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08275862068965517</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07586206896551724</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1862068965517241</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="R9">
-        <v>0.06206896551724138</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="S9">
-        <v>0.4482758620689655</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09770687936191426</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01296111665004985</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08374875373878365</v>
+        <v>0.08369283865401209</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1435692921236291</v>
+        <v>0.1371872303710095</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01994017946161515</v>
+        <v>0.01898188093183779</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1834496510468594</v>
+        <v>0.1872303710094909</v>
       </c>
       <c r="R10">
-        <v>0.05383848454636091</v>
+        <v>0.05694564279551338</v>
       </c>
       <c r="S10">
-        <v>0.4047856430707876</v>
+        <v>0.4012079378774806</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1448598130841121</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06542056074766354</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="K11">
-        <v>0.1962616822429906</v>
+        <v>0.2024291497975708</v>
       </c>
       <c r="L11">
-        <v>0.5841121495327103</v>
+        <v>0.5668016194331984</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.008097165991902834</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7890625</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1484375</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="K12">
-        <v>0.015625</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="L12">
-        <v>0.015625</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03125</v>
+        <v>0.04195804195804196</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01886792452830189</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1509433962264151</v>
+        <v>0.150259067357513</v>
       </c>
       <c r="I15">
-        <v>0.05031446540880503</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="J15">
-        <v>0.3270440251572327</v>
+        <v>0.310880829015544</v>
       </c>
       <c r="K15">
-        <v>0.0440251572327044</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06918238993710692</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3396226415094339</v>
+        <v>0.3056994818652849</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1729323308270677</v>
+        <v>0.19375</v>
       </c>
       <c r="I16">
-        <v>0.06015037593984962</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="J16">
-        <v>0.4661654135338346</v>
+        <v>0.425</v>
       </c>
       <c r="K16">
-        <v>0.1203007518796992</v>
+        <v>0.1125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="N16">
-        <v>0.007518796992481203</v>
+        <v>0.00625</v>
       </c>
       <c r="O16">
-        <v>0.03007518796992481</v>
+        <v>0.0375</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.14375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02424242424242424</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2181818181818182</v>
+        <v>0.2356020942408377</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.4005235602094241</v>
       </c>
       <c r="K17">
-        <v>0.09696969696969697</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01212121212121212</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03333333333333333</v>
+        <v>0.03926701570680628</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1151515151515152</v>
+        <v>0.1047120418848168</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009259259259259259</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1851851851851852</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I18">
-        <v>0.1018518518518518</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="J18">
-        <v>0.4166666666666667</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K18">
         <v>0.08333333333333333</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01851851851851852</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03703703703703703</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1481481481481481</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00699912510936133</v>
+        <v>0.009863429438543247</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.242344706911636</v>
+        <v>0.2397572078907436</v>
       </c>
       <c r="I19">
-        <v>0.0752405949256343</v>
+        <v>0.07587253414264036</v>
       </c>
       <c r="J19">
-        <v>0.357830271216098</v>
+        <v>0.3550834597875569</v>
       </c>
       <c r="K19">
-        <v>0.09361329833770779</v>
+        <v>0.09256449165402124</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02712160979877515</v>
+        <v>0.02655538694992413</v>
       </c>
       <c r="N19">
-        <v>0.001749781277340333</v>
+        <v>0.001517450682852807</v>
       </c>
       <c r="O19">
-        <v>0.05861767279090114</v>
+        <v>0.0629742033383915</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1364829396325459</v>
+        <v>0.1358118361153262</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Siena_A.xlsx
+++ b/team_specific_matrix/Siena_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2323943661971831</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C2">
-        <v>0.4436619718309859</v>
+        <v>0.46</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03873239436619718</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1830985915492958</v>
+        <v>0.18</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.102112676056338</v>
+        <v>0.09666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.01526717557251908</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04580152671755725</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7022900763358778</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2290076335877863</v>
+        <v>0.2237762237762238</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6129032258064516</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3548387096774194</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06334841628959276</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004524886877828055</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05429864253393665</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2443438914027149</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009049773755656109</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1040723981900453</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="R6">
-        <v>0.06334841628959276</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="S6">
-        <v>0.4570135746606335</v>
+        <v>0.4439655172413793</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08187134502923976</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01169590643274854</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="F7">
-        <v>0.08187134502923976</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1345029239766082</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="R7">
-        <v>0.07017543859649122</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="S7">
-        <v>0.5029239766081871</v>
+        <v>0.4972677595628415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1038696537678208</v>
+        <v>0.1019230769230769</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01629327902240326</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06313645621181263</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1221995926680244</v>
+        <v>0.1211538461538462</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03258655804480651</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1812627291242362</v>
+        <v>0.1865384615384615</v>
       </c>
       <c r="R8">
-        <v>0.05906313645621181</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="S8">
-        <v>0.4215885947046843</v>
+        <v>0.4211538461538462</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01666666666666667</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07222222222222222</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08333333333333333</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03333333333333333</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1888888888888889</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="R9">
-        <v>0.06111111111111111</v>
+        <v>0.06467661691542288</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4527363184079602</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09836065573770492</v>
+        <v>0.0976781425140112</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01639344262295082</v>
+        <v>0.01601281024819856</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08369283865401209</v>
+        <v>0.08006405124099279</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1371872303710095</v>
+        <v>0.1401120896717374</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01898188093183779</v>
+        <v>0.01761409127301842</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1872303710094909</v>
+        <v>0.1897518014411529</v>
       </c>
       <c r="R10">
-        <v>0.05694564279551338</v>
+        <v>0.05764611689351481</v>
       </c>
       <c r="S10">
-        <v>0.4012079378774806</v>
+        <v>0.4011208967173739</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1295546558704453</v>
+        <v>0.1216730038022814</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0931174089068826</v>
+        <v>0.09125475285171103</v>
       </c>
       <c r="K11">
-        <v>0.2024291497975708</v>
+        <v>0.1977186311787072</v>
       </c>
       <c r="L11">
-        <v>0.5668016194331984</v>
+        <v>0.5817490494296578</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008097165991902834</v>
+        <v>0.007604562737642586</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7832167832167832</v>
+        <v>0.7721518987341772</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1468531468531468</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="K12">
-        <v>0.01398601398601399</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L12">
-        <v>0.01398601398601399</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04195804195804196</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7857142857142857</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02072538860103627</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.150259067357513</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="I15">
-        <v>0.09844559585492228</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="J15">
-        <v>0.310880829015544</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="K15">
-        <v>0.04145077720207254</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01036269430051814</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06217616580310881</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3056994818652849</v>
+        <v>0.3058252427184466</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00625</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.19375</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="I16">
-        <v>0.06875000000000001</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="J16">
-        <v>0.425</v>
+        <v>0.4335260115606936</v>
       </c>
       <c r="K16">
-        <v>0.1125</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00625</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="N16">
-        <v>0.00625</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="O16">
-        <v>0.0375</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.138728323699422</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02094240837696335</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2356020942408377</v>
+        <v>0.2367149758454106</v>
       </c>
       <c r="I17">
-        <v>0.09424083769633508</v>
+        <v>0.09903381642512077</v>
       </c>
       <c r="J17">
-        <v>0.4005235602094241</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="K17">
-        <v>0.09424083769633508</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01047120418848168</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03926701570680628</v>
+        <v>0.04106280193236715</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1047120418848168</v>
+        <v>0.09903381642512077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007575757575757576</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2121212121212121</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="I18">
-        <v>0.1136363636363636</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="J18">
-        <v>0.3863636363636364</v>
+        <v>0.3732394366197183</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01515151515151515</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04545454545454546</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1363636363636364</v>
+        <v>0.1549295774647887</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009863429438543247</v>
+        <v>0.009957325746799431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2397572078907436</v>
+        <v>0.2382645803698435</v>
       </c>
       <c r="I19">
-        <v>0.07587253414264036</v>
+        <v>0.07823613086770982</v>
       </c>
       <c r="J19">
-        <v>0.3550834597875569</v>
+        <v>0.3570412517780939</v>
       </c>
       <c r="K19">
-        <v>0.09256449165402124</v>
+        <v>0.09246088193456614</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02655538694992413</v>
+        <v>0.02773826458036984</v>
       </c>
       <c r="N19">
-        <v>0.001517450682852807</v>
+        <v>0.001422475106685633</v>
       </c>
       <c r="O19">
-        <v>0.0629742033383915</v>
+        <v>0.06258890469416785</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1358118361153262</v>
+        <v>0.1322901849217639</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Siena_A.xlsx
+++ b/team_specific_matrix/Siena_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2266666666666667</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="C2">
-        <v>0.46</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03666666666666667</v>
+        <v>0.03525641025641026</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.18</v>
+        <v>0.1762820512820513</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09666666666666666</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04195804195804196</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7132867132867133</v>
+        <v>0.7039473684210527</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2237762237762238</v>
+        <v>0.2236842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.06324110671936758</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004310344827586207</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05603448275862069</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008620689655172414</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.103448275862069</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="R6">
-        <v>0.06465517241379311</v>
+        <v>0.07509881422924901</v>
       </c>
       <c r="S6">
-        <v>0.4439655172413793</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08196721311475409</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02185792349726776</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E7">
-        <v>0.00546448087431694</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F7">
-        <v>0.08743169398907104</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09836065573770492</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01092896174863388</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1311475409836066</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R7">
-        <v>0.06557377049180328</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S7">
-        <v>0.4972677595628415</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1019230769230769</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01538461538461539</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06153846153846154</v>
+        <v>0.06340579710144928</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1211538461538462</v>
+        <v>0.1177536231884058</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03461538461538462</v>
+        <v>0.03442028985507246</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1865384615384615</v>
+        <v>0.1902173913043478</v>
       </c>
       <c r="R8">
-        <v>0.0576923076923077</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S8">
-        <v>0.4211538461538462</v>
+        <v>0.4202898550724637</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0945273631840796</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01492537313432836</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06965174129353234</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0945273631840796</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02985074626865672</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1791044776119403</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="R9">
-        <v>0.06467661691542288</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="S9">
-        <v>0.4527363184079602</v>
+        <v>0.4622641509433962</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0976781425140112</v>
+        <v>0.09759759759759759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01601281024819856</v>
+        <v>0.01501501501501501</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08006405124099279</v>
+        <v>0.08033033033033032</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1401120896717374</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01761409127301842</v>
+        <v>0.01726726726726727</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1897518014411529</v>
+        <v>0.1876876876876877</v>
       </c>
       <c r="R10">
-        <v>0.05764611689351481</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="S10">
-        <v>0.4011208967173739</v>
+        <v>0.4046546546546547</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1216730038022814</v>
+        <v>0.124113475177305</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09125475285171103</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="K11">
-        <v>0.1977186311787072</v>
+        <v>0.198581560283688</v>
       </c>
       <c r="L11">
-        <v>0.5817490494296578</v>
+        <v>0.5780141843971631</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007604562737642586</v>
+        <v>0.007092198581560284</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7721518987341772</v>
+        <v>0.7797619047619048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1518987341772152</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="K12">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="L12">
-        <v>0.02531645569620253</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0379746835443038</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7608695652173914</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2391304347826087</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1504854368932039</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="I15">
-        <v>0.1019417475728155</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="J15">
-        <v>0.3106796116504854</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="K15">
-        <v>0.03883495145631068</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009708737864077669</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06310679611650485</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3058252427184466</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005780346820809248</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1849710982658959</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="I16">
-        <v>0.07514450867052024</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="J16">
-        <v>0.4335260115606936</v>
+        <v>0.4357541899441341</v>
       </c>
       <c r="K16">
-        <v>0.1098265895953757</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005780346820809248</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="N16">
-        <v>0.005780346820809248</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="O16">
-        <v>0.04046242774566474</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.138728323699422</v>
+        <v>0.1340782122905028</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02173913043478261</v>
+        <v>0.025</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2367149758454106</v>
+        <v>0.2340909090909091</v>
       </c>
       <c r="I17">
-        <v>0.09903381642512077</v>
+        <v>0.09772727272727273</v>
       </c>
       <c r="J17">
-        <v>0.3985507246376812</v>
+        <v>0.3909090909090909</v>
       </c>
       <c r="K17">
-        <v>0.09420289855072464</v>
+        <v>0.08863636363636364</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00966183574879227</v>
+        <v>0.01590909090909091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04106280193236715</v>
+        <v>0.04318181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09903381642512077</v>
+        <v>0.1045454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007042253521126761</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1971830985915493</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="I18">
-        <v>0.1197183098591549</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="J18">
-        <v>0.3732394366197183</v>
+        <v>0.3949044585987261</v>
       </c>
       <c r="K18">
-        <v>0.09154929577464789</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01408450704225352</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04225352112676056</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1549295774647887</v>
+        <v>0.1401273885350318</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009957325746799431</v>
+        <v>0.0107095046854083</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2382645803698435</v>
+        <v>0.2396251673360107</v>
       </c>
       <c r="I19">
-        <v>0.07823613086770982</v>
+        <v>0.07697456492637215</v>
       </c>
       <c r="J19">
-        <v>0.3570412517780939</v>
+        <v>0.35809906291834</v>
       </c>
       <c r="K19">
-        <v>0.09246088193456614</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02773826458036984</v>
+        <v>0.02811244979919679</v>
       </c>
       <c r="N19">
-        <v>0.001422475106685633</v>
+        <v>0.001338688085676037</v>
       </c>
       <c r="O19">
-        <v>0.06258890469416785</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1322901849217639</v>
+        <v>0.1285140562248996</v>
       </c>
     </row>
   </sheetData>
